--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_18_10.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_18_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1050484.19038991</v>
+        <v>-1053034.908288017</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12560720.06231649</v>
+        <v>12561851.30939063</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673436</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14037919.04220653</v>
+        <v>14038376.88046103</v>
       </c>
     </row>
     <row r="11">
@@ -668,16 +668,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.7321536188797</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>42.04518470759564</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.464536558263</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9711388310543</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>250.9961436311612</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>70.3360125582775</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>106.5668083035857</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -750,13 +750,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>135.0059677968616</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.65963851412519</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>8.915218264396685</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,16 +783,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
-        <v>128.264216864854</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
-        <v>190.7427643629146</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U3" t="n">
-        <v>225.7875959384519</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -820,22 +820,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0312564930842</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.803454668018</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.51626366671985</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>89.17712508496183</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>189.8639731922165</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>110.8019083215965</v>
+        <v>214.6899617110822</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>333.4578381712268</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -908,10 +908,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>243.2012226245562</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1108,19 +1108,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>52.02644405005584</v>
       </c>
       <c r="V7" t="n">
-        <v>130.7403543067855</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>192.0524966157156</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>226.2480479199169</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>94.69801635376713</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>116.8963400006347</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695479</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1531,7 +1531,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1543,10 +1543,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856715</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>8.616048582070059</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>104.4262124629276</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1771,19 +1771,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>20.92847288552876</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1822,7 +1822,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>19.72264368952111</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2014,10 +2014,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>19.9155582618904</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>115.2707447515121</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2296,10 +2296,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>194.9085394018859</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>214.4033048062051</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2384,7 +2384,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560527</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2476,10 +2476,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.13054509253693</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2536,7 +2536,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>87.61360486368901</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2561,13 +2561,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2710,19 +2710,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2761,10 +2761,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>123.797182079702</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>125.247498288608</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -3001,7 +3001,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>206.5509998577711</v>
+        <v>206.5509998577704</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>161.8852567038644</v>
+        <v>164.260746886978</v>
       </c>
       <c r="C34" t="n">
-        <v>149.3000976205549</v>
+        <v>151.6755878036686</v>
       </c>
       <c r="D34" t="n">
-        <v>108.0548098764556</v>
+        <v>133.0442397232531</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>52.97777888982572</v>
       </c>
       <c r="F34" t="n">
-        <v>127.4743245448583</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>147.5774148141959</v>
+        <v>149.9529049973096</v>
       </c>
       <c r="H34" t="n">
-        <v>122.347989368151</v>
+        <v>124.7234795512646</v>
       </c>
       <c r="I34" t="n">
-        <v>63.31911284049262</v>
+        <v>65.69460302360628</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>48.42852323204878</v>
+        <v>50.80401341516244</v>
       </c>
       <c r="S34" t="n">
-        <v>163.0795625235717</v>
+        <v>165.4550527066853</v>
       </c>
       <c r="T34" t="n">
-        <v>199.4587268492153</v>
+        <v>201.834217032329</v>
       </c>
       <c r="U34" t="n">
-        <v>268.2377509111712</v>
+        <v>270.6132410942849</v>
       </c>
       <c r="V34" t="n">
-        <v>234.1909198457551</v>
+        <v>236.5664100288687</v>
       </c>
       <c r="W34" t="n">
-        <v>268.5762748585181</v>
+        <v>270.9517650416317</v>
       </c>
       <c r="X34" t="n">
-        <v>207.7629319109643</v>
+        <v>210.1384220940779</v>
       </c>
       <c r="Y34" t="n">
-        <v>200.6379298740219</v>
+        <v>203.0134200571355</v>
       </c>
     </row>
     <row r="35">
@@ -3329,7 +3329,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3424,25 +3424,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E37" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308903</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H37" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652614</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3487,7 +3487,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3557,7 +3557,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E40" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>121.13640053089</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H40" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808194</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -3958,10 +3958,10 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1519.411519317628</v>
+        <v>1888.098089758431</v>
       </c>
       <c r="C2" t="n">
-        <v>1150.449002377216</v>
+        <v>1519.135572818019</v>
       </c>
       <c r="D2" t="n">
-        <v>792.1833037704657</v>
+        <v>1160.869874211268</v>
       </c>
       <c r="E2" t="n">
-        <v>406.3950511722214</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="F2" t="n">
-        <v>406.3950511722214</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G2" t="n">
-        <v>406.3950511722214</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H2" t="n">
-        <v>108.6858050925453</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I2" t="n">
-        <v>66.21592154951942</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>254.0744928369591</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>586.3643121319019</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
-        <v>1035.500977900981</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1566.921495383895</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2111.55476080156</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2612.501248106873</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3005.546484356407</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3252.534341412639</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3310.796077475971</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3200.22583852823</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>2994.194385163529</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2740.662926950235</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2669.616449618641</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="W2" t="n">
-        <v>2669.616449618641</v>
+        <v>2648.163688083632</v>
       </c>
       <c r="X2" t="n">
-        <v>2296.150691357561</v>
+        <v>2274.697929822552</v>
       </c>
       <c r="Y2" t="n">
-        <v>1906.01135938175</v>
+        <v>2274.697929822552</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1687.28192383232</v>
+        <v>1702.096133556939</v>
       </c>
       <c r="C3" t="n">
-        <v>1512.828894551193</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D3" t="n">
-        <v>1363.894484889942</v>
+        <v>1378.708694614561</v>
       </c>
       <c r="E3" t="n">
-        <v>1204.657029884486</v>
+        <v>1219.471239609105</v>
       </c>
       <c r="F3" t="n">
-        <v>1058.122471911371</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>921.7528074700967</v>
+        <v>936.5735814686084</v>
       </c>
       <c r="H3" t="n">
-        <v>831.1875160416871</v>
+        <v>846.0716871064759</v>
       </c>
       <c r="I3" t="n">
-        <v>822.182245067549</v>
+        <v>827.0643955080138</v>
       </c>
       <c r="J3" t="n">
-        <v>915.2516762093036</v>
+        <v>920.7416649986312</v>
       </c>
       <c r="K3" t="n">
-        <v>1152.476982636377</v>
+        <v>1159.005863978978</v>
       </c>
       <c r="L3" t="n">
-        <v>1517.778223703861</v>
+        <v>1525.704024291644</v>
       </c>
       <c r="M3" t="n">
-        <v>1963.424410055474</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>2435.274169813948</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O3" t="n">
-        <v>2844.704721461206</v>
+        <v>2857.464672486469</v>
       </c>
       <c r="P3" t="n">
-        <v>3153.975768949899</v>
+        <v>3167.964263962572</v>
       </c>
       <c r="Q3" t="n">
-        <v>3310.796077475971</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>3310.796077475971</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S3" t="n">
-        <v>3181.236262460966</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T3" t="n">
-        <v>2988.566803508527</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U3" t="n">
-        <v>2760.498524782819</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V3" t="n">
-        <v>2525.346416551076</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>2271.109059822875</v>
+        <v>2285.923269547494</v>
       </c>
       <c r="X3" t="n">
-        <v>2063.257559617342</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1855.497260852388</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1091.53741610928</v>
+        <v>478.9911633238872</v>
       </c>
       <c r="C4" t="n">
-        <v>922.6012331813728</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="D4" t="n">
-        <v>772.484593769037</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="E4" t="n">
-        <v>624.5715001866438</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="F4" t="n">
-        <v>477.6815526887335</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="G4" t="n">
-        <v>309.9732127967293</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H4" t="n">
-        <v>163.7070969704486</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.21592154951942</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>110.9572157501788</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>314.3177428179429</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>630.0756374886839</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>973.3871879897963</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
-        <v>1313.970173580891</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>1612.537390213391</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>1844.49254089413</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1921.651183891643</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1831.573279765419</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S4" t="n">
-        <v>1639.79148866217</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="T4" t="n">
-        <v>1639.79148866217</v>
+        <v>1615.697475415546</v>
       </c>
       <c r="U4" t="n">
-        <v>1527.870369145406</v>
+        <v>1398.838928232635</v>
       </c>
       <c r="V4" t="n">
-        <v>1273.185880939519</v>
+        <v>1398.838928232635</v>
       </c>
       <c r="W4" t="n">
-        <v>1273.185880939519</v>
+        <v>1109.421758195674</v>
       </c>
       <c r="X4" t="n">
-        <v>1273.185880939519</v>
+        <v>881.432207297657</v>
       </c>
       <c r="Y4" t="n">
-        <v>1273.185880939519</v>
+        <v>660.6396281541269</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1941.127034633561</v>
+        <v>1878.169188758593</v>
       </c>
       <c r="C5" t="n">
-        <v>1572.164517693149</v>
+        <v>1509.206671818182</v>
       </c>
       <c r="D5" t="n">
-        <v>1213.898819086399</v>
+        <v>1150.940973211431</v>
       </c>
       <c r="E5" t="n">
-        <v>828.1105664881545</v>
+        <v>765.1527206131871</v>
       </c>
       <c r="F5" t="n">
-        <v>417.1246616985469</v>
+        <v>354.1668158235795</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4568,7 +4568,7 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4592,25 +4592,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410101</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066531</v>
+        <v>2994.542934265599</v>
       </c>
       <c r="W5" t="n">
-        <v>2277.953133796416</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X5" t="n">
-        <v>2277.953133796416</v>
+        <v>2268.308520734405</v>
       </c>
       <c r="Y5" t="n">
-        <v>2277.953133796416</v>
+        <v>1878.169188758593</v>
       </c>
     </row>
     <row r="6">
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>531.7821255545682</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="C7" t="n">
-        <v>362.8459426266613</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D7" t="n">
-        <v>212.7293032143256</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E7" t="n">
-        <v>212.7293032143256</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F7" t="n">
-        <v>212.7293032143256</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H7" t="n">
-        <v>66.5121164321834</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I7" t="n">
         <v>66.5121164321834</v>
@@ -4756,19 +4756,19 @@
         <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1371.459627555448</v>
       </c>
       <c r="V7" t="n">
-        <v>1002.847760421768</v>
+        <v>1371.459627555448</v>
       </c>
       <c r="W7" t="n">
-        <v>713.4305903848079</v>
+        <v>1371.459627555448</v>
       </c>
       <c r="X7" t="n">
-        <v>713.4305903848079</v>
+        <v>1143.470076657431</v>
       </c>
       <c r="Y7" t="n">
-        <v>713.4305903848079</v>
+        <v>922.6774975139006</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1320.35562273557</v>
+        <v>1418.660964416652</v>
       </c>
       <c r="C8" t="n">
-        <v>1320.35562273557</v>
+        <v>1049.698447476241</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>1049.698447476241</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>1049.698447476241</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4802,7 +4802,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4811,7 +4811,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410102</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.721789066531</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W8" t="n">
-        <v>2277.953133796417</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X8" t="n">
-        <v>1904.487375535337</v>
+        <v>1808.800296392464</v>
       </c>
       <c r="Y8" t="n">
-        <v>1514.348043559525</v>
+        <v>1418.660964416652</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>624.6477645191717</v>
+        <v>890.2616555050635</v>
       </c>
       <c r="C10" t="n">
-        <v>624.6477645191717</v>
+        <v>721.3254725771566</v>
       </c>
       <c r="D10" t="n">
-        <v>624.6477645191717</v>
+        <v>625.6709106036544</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F10" t="n">
         <v>477.7578170212613</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T10" t="n">
-        <v>1735.608663915319</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U10" t="n">
-        <v>1617.531552803567</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="V10" t="n">
-        <v>1362.84706459768</v>
+        <v>1071.910120335303</v>
       </c>
       <c r="W10" t="n">
-        <v>1073.429894560719</v>
+        <v>1071.910120335303</v>
       </c>
       <c r="X10" t="n">
-        <v>845.4403436627018</v>
+        <v>1071.910120335303</v>
       </c>
       <c r="Y10" t="n">
-        <v>624.6477645191717</v>
+        <v>1071.910120335303</v>
       </c>
     </row>
     <row r="11">
@@ -5018,16 +5018,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5036,25 +5036,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5066,22 +5066,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5121,22 +5121,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>221.3431781811722</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>716.6687843969308</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>724.7519863413015</v>
+        <v>1098.667160263528</v>
       </c>
       <c r="C13" t="n">
-        <v>555.8158034133946</v>
+        <v>929.7309773356211</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133946</v>
+        <v>779.6143379232853</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310016</v>
+        <v>631.7012443408922</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330914</v>
+        <v>484.8112968429818</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578618</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000599</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5200,10 +5200,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5212,7 +5212,7 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2188.359466111739</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U13" t="n">
-        <v>1899.284239455936</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V13" t="n">
-        <v>1644.599751250049</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W13" t="n">
-        <v>1355.182581213089</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X13" t="n">
-        <v>1127.193030315071</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y13" t="n">
-        <v>906.4004511715412</v>
+        <v>1280.315625093768</v>
       </c>
     </row>
     <row r="14">
@@ -5276,10 +5276,10 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5288,16 +5288,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5352,28 +5352,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>746.8882603249853</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>931.4710609784063</v>
+        <v>580.899304487669</v>
       </c>
       <c r="C16" t="n">
-        <v>762.5348780504994</v>
+        <v>411.9631215597622</v>
       </c>
       <c r="D16" t="n">
-        <v>612.4182386381635</v>
+        <v>261.8464821474264</v>
       </c>
       <c r="E16" t="n">
-        <v>464.5051450557705</v>
+        <v>261.8464821474264</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578601</v>
+        <v>114.956534649516</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5437,49 +5437,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832662</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855603</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U16" t="n">
-        <v>1871.240688199801</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1851.318825887154</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1561.901655850193</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1333.912104952176</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>1113.119525808646</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5489,52 +5489,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5546,19 +5546,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5589,22 +5589,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>560.7825789706076</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C19" t="n">
-        <v>391.8463960427007</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D19" t="n">
-        <v>241.729756630365</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E19" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5671,13 +5671,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797746</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5689,34 +5689,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2426.846358063199</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2243.991523718104</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T19" t="n">
-        <v>2024.390058741045</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U19" t="n">
-        <v>1735.314832085242</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V19" t="n">
-        <v>1480.630343879355</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W19" t="n">
-        <v>1191.213173842395</v>
+        <v>1500.121104285317</v>
       </c>
       <c r="X19" t="n">
-        <v>963.2236229443774</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y19" t="n">
-        <v>742.4310438008473</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="20">
@@ -5744,28 +5744,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188007</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
         <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925705</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490404</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="23">
@@ -5984,31 +5984,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>781.8178837532264</v>
+        <v>800.5007694647281</v>
       </c>
       <c r="C25" t="n">
-        <v>781.8178837532264</v>
+        <v>631.5645865368211</v>
       </c>
       <c r="D25" t="n">
-        <v>631.7012443408906</v>
+        <v>631.5645865368211</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>631.5645865368211</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>484.6746390389108</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>317.4785397537908</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>175.766708595989</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
         <v>826.1405381797745</v>
@@ -6157,40 +6157,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
         <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W25" t="n">
-        <v>1412.248478625014</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X25" t="n">
-        <v>1184.258927726996</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y25" t="n">
-        <v>963.4663485834661</v>
+        <v>982.1492342949679</v>
       </c>
     </row>
     <row r="26">
@@ -6209,10 +6209,10 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6300,28 +6300,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188007</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F28" t="n">
         <v>402.7245934908938</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533435</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1363.885660588918</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925705</v>
+        <v>1237.37303605497</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490404</v>
+        <v>1016.58045691144</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6458,25 +6458,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6604,28 +6604,28 @@
         <v>388.6197041282754</v>
       </c>
       <c r="E31" t="n">
-        <v>240.7066105458823</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6643,10 +6643,10 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="T31" t="n">
         <v>2171.280006238955</v>
@@ -6674,10 +6674,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004712</v>
@@ -6686,34 +6686,34 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6774,25 +6774,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>819.1436823052532</v>
+        <v>778.7344347539597</v>
       </c>
       <c r="C34" t="n">
-        <v>668.3355028905512</v>
+        <v>625.5267703058096</v>
       </c>
       <c r="D34" t="n">
-        <v>559.1892302880708</v>
+        <v>491.1386493732307</v>
       </c>
       <c r="E34" t="n">
-        <v>559.1892302880708</v>
+        <v>437.6257414037098</v>
       </c>
       <c r="F34" t="n">
-        <v>430.4272863033654</v>
+        <v>437.6257414037098</v>
       </c>
       <c r="G34" t="n">
-        <v>281.3591905314503</v>
+        <v>286.1581605983466</v>
       </c>
       <c r="H34" t="n">
-        <v>157.7753628868533</v>
+        <v>160.1748479203015</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>191.8199377215879</v>
+        <v>189.4682024403054</v>
       </c>
       <c r="K34" t="n">
-        <v>471.2764564904187</v>
+        <v>466.5729859278536</v>
       </c>
       <c r="L34" t="n">
-        <v>879.4423069096511</v>
+        <v>872.3871010658033</v>
       </c>
       <c r="M34" t="n">
-        <v>1319.219265883978</v>
+        <v>1309.812324758848</v>
       </c>
       <c r="N34" t="n">
-        <v>1754.396393787278</v>
+        <v>1742.637717380866</v>
       </c>
       <c r="O34" t="n">
-        <v>2141.692930739555</v>
+        <v>2127.58251905186</v>
       </c>
       <c r="P34" t="n">
-        <v>2452.135642556406</v>
+        <v>2435.673495587429</v>
       </c>
       <c r="Q34" t="n">
-        <v>2589.101133526598</v>
+        <v>2570.287251276338</v>
       </c>
       <c r="R34" t="n">
-        <v>2540.183433292205</v>
+        <v>2518.970066008497</v>
       </c>
       <c r="S34" t="n">
-        <v>2375.456602460314</v>
+        <v>2351.843750143158</v>
       </c>
       <c r="T34" t="n">
-        <v>2173.98314099646</v>
+        <v>2147.970803645856</v>
       </c>
       <c r="U34" t="n">
-        <v>1903.035917853863</v>
+        <v>1874.624095469811</v>
       </c>
       <c r="V34" t="n">
-        <v>1666.479433161181</v>
+        <v>1635.668125743681</v>
       </c>
       <c r="W34" t="n">
-        <v>1395.190266637425</v>
+        <v>1361.979474186477</v>
       </c>
       <c r="X34" t="n">
-        <v>1185.328719252613</v>
+        <v>1149.718441768216</v>
       </c>
       <c r="Y34" t="n">
-        <v>982.6641436222878</v>
+        <v>944.6543811044426</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,13 +6932,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7014,28 +7014,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>95.58405025273903</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319311</v>
       </c>
       <c r="C37" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656804</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150012</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942643</v>
       </c>
       <c r="F37" t="n">
-        <v>411.221455958012</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345482</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384023</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K37" t="n">
         <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7117,28 +7117,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="38">
@@ -7163,13 +7163,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
         <v>378.192580311172</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319312</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656804</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>656.964603115001</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942641</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7336,7 +7336,7 @@
         <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7354,7 +7354,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
         <v>2438.456847547834</v>
@@ -7363,19 +7363,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,16 +7406,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014779</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7485,25 +7485,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C43" t="n">
         <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345474</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384018</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
@@ -7582,22 +7582,22 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
         <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U43" t="n">
         <v>1978.840049838286</v>
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
         <v>378.192580311172</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7722,25 +7722,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150024</v>
+        <v>656.964603115002</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942651</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7828,16 +7828,16 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -7846,7 +7846,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -8052,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.5463950602909904</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -22556,16 +22556,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9338715566937</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22604,16 +22604,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>257.4162459118574</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>242.6741604138273</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22708,16 +22708,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -22753,25 +22753,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5722280944081</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>175.4102270604194</v>
+        <v>71.52187649453067</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>208.7894017452182</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>114.1584408891672</v>
       </c>
     </row>
     <row r="14">
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>144.5956654067401</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>232.4149996343069</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922689</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.45968844823128</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>171.2522535850789</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24184,10 +24184,10 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>57.22910392194214</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>72.11969353038586</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24364,10 +24364,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>0.1352912260285802</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>198.909393472902</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24598,19 +24598,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24649,10 +24649,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>57.22910392194259</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>100.4621571004292</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24889,7 +24889,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>10.85445046951719</v>
+        <v>10.85445046951787</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25078,13 +25078,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>22.61393966368387</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>128.4872391684963</v>
+        <v>77.8849504617842</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>129.849814727972</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25321,7 +25321,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>1.236344360222574e-12</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>-3.197442310920451e-13</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25558,7 +25558,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>1.575699570821598e-12</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1032135.103647456</v>
+        <v>1033970.288282984</v>
       </c>
     </row>
     <row r="3">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1237102.003728689</v>
+        <v>1235063.194619816</v>
       </c>
     </row>
     <row r="13">
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>170158.7479673148</v>
+        <v>170498.5494854602</v>
       </c>
       <c r="C2" t="n">
-        <v>205260.4424660708</v>
+        <v>205260.4424660707</v>
       </c>
       <c r="D2" t="n">
         <v>205260.4424660708</v>
       </c>
       <c r="E2" t="n">
-        <v>201786.6499225015</v>
+        <v>201786.6499225016</v>
       </c>
       <c r="F2" t="n">
         <v>201786.6499225016</v>
@@ -26332,22 +26332,22 @@
         <v>201786.6499225015</v>
       </c>
       <c r="I2" t="n">
-        <v>201786.6499225015</v>
+        <v>201786.6499225016</v>
       </c>
       <c r="J2" t="n">
-        <v>201786.6499225015</v>
+        <v>201786.6499225016</v>
       </c>
       <c r="K2" t="n">
         <v>201786.6499225016</v>
       </c>
       <c r="L2" t="n">
-        <v>204353.8353930778</v>
+        <v>204014.0338749324</v>
       </c>
       <c r="M2" t="n">
-        <v>205260.4424660708</v>
+        <v>205260.4424660709</v>
       </c>
       <c r="N2" t="n">
-        <v>205260.4424660708</v>
+        <v>205260.4424660709</v>
       </c>
       <c r="O2" t="n">
         <v>205260.4424660709</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1324592.616629867</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>3947.344390015523</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>216562.4822237807</v>
+        <v>217531.2023972773</v>
       </c>
       <c r="K3" t="n">
-        <v>952.8885570183077</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>14357.37878245833</v>
+        <v>12456.9866359674</v>
       </c>
       <c r="M3" t="n">
-        <v>90125.36714668528</v>
+        <v>92025.75929317619</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11801.276833267</v>
+        <v>11600.2349971284</v>
       </c>
       <c r="C4" t="n">
-        <v>90964.01098815716</v>
+        <v>90964.01098815713</v>
       </c>
       <c r="D4" t="n">
-        <v>90964.01098815713</v>
+        <v>90964.0109881571</v>
       </c>
       <c r="E4" t="n">
         <v>11776.97621680582</v>
@@ -26430,13 +26430,13 @@
         <v>11776.97621680582</v>
       </c>
       <c r="G4" t="n">
-        <v>11776.97621680584</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="H4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="I4" t="n">
-        <v>11776.97621680586</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="J4" t="n">
         <v>11776.97621680584</v>
@@ -26445,19 +26445,19 @@
         <v>11776.97621680582</v>
       </c>
       <c r="L4" t="n">
-        <v>17682.34262551918</v>
+        <v>16900.68797146896</v>
       </c>
       <c r="M4" t="n">
+        <v>19767.8354798993</v>
+      </c>
+      <c r="N4" t="n">
+        <v>19767.83547989927</v>
+      </c>
+      <c r="O4" t="n">
+        <v>19767.83547989929</v>
+      </c>
+      <c r="P4" t="n">
         <v>19767.83547989928</v>
-      </c>
-      <c r="N4" t="n">
-        <v>19767.8354798993</v>
-      </c>
-      <c r="O4" t="n">
-        <v>19767.8354798993</v>
-      </c>
-      <c r="P4" t="n">
-        <v>19767.8354798993</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107642.9682537726</v>
+        <v>107933.9405613933</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26497,7 +26497,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
-        <v>102631.2929199852</v>
+        <v>102431.587835781</v>
       </c>
       <c r="M5" t="n">
         <v>103164.1158539154</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1273878.113749592</v>
+        <v>-1278127.99073046</v>
       </c>
       <c r="C6" t="n">
-        <v>2415.146526504803</v>
+        <v>6362.490916520328</v>
       </c>
       <c r="D6" t="n">
-        <v>6362.490916520372</v>
+        <v>6362.490916520401</v>
       </c>
       <c r="E6" t="n">
-        <v>-236525.3179255666</v>
+        <v>-236560.0558510024</v>
       </c>
       <c r="F6" t="n">
-        <v>88887.1438817887</v>
+        <v>88852.40595635294</v>
       </c>
       <c r="G6" t="n">
-        <v>88887.14388178861</v>
+        <v>88852.40595635303</v>
       </c>
       <c r="H6" t="n">
-        <v>88887.14388178858</v>
+        <v>88852.40595635292</v>
       </c>
       <c r="I6" t="n">
-        <v>88887.14388178852</v>
+        <v>88852.40595635297</v>
       </c>
       <c r="J6" t="n">
-        <v>-127675.3383419922</v>
+        <v>-128678.7964409244</v>
       </c>
       <c r="K6" t="n">
-        <v>87934.25532477033</v>
+        <v>88852.40595635297</v>
       </c>
       <c r="L6" t="n">
-        <v>69682.82106511507</v>
+        <v>72212.30734580364</v>
       </c>
       <c r="M6" t="n">
-        <v>-7796.876014429115</v>
+        <v>-9697.268160920008</v>
       </c>
       <c r="N6" t="n">
-        <v>82328.49113225617</v>
+        <v>82328.49113225625</v>
       </c>
       <c r="O6" t="n">
-        <v>82328.49113225617</v>
+        <v>82328.49113225623</v>
       </c>
       <c r="P6" t="n">
-        <v>82328.49113225623</v>
+        <v>82328.49113225625</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>17.94672347807291</v>
+        <v>15.57123329495925</v>
       </c>
       <c r="M2" t="n">
+        <v>24.28464749203968</v>
+      </c>
+      <c r="N2" t="n">
+        <v>24.28464749203968</v>
+      </c>
+      <c r="O2" t="n">
+        <v>24.28464749203969</v>
+      </c>
+      <c r="P2" t="n">
         <v>24.28464749203971</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24.28464749203971</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.28464749203975</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1086.755407162286</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>827.6990193689927</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022925</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>17.94672347807291</v>
+        <v>15.57123329495925</v>
       </c>
       <c r="M2" t="n">
-        <v>6.337924013966798</v>
+        <v>8.713414197080432</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1086.755407162286</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>3.021293431011827</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,10 +27009,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>827.6990193689927</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>3.702436033299819</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27033,10 +27033,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>827.6990193689927</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
-        <v>3.702436033299819</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27255,10 +27255,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>827.6990193689927</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
-        <v>3.702436033299819</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>49.27600349225378</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27628,10 +27628,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>167.7205030288973</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27828,19 +27828,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>234.185394155557</v>
       </c>
       <c r="V7" t="n">
-        <v>121.3972890170425</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>190.681345047765</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>180.6279978217945</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>53.91745666444523</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>169.3154982049782</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28138,7 +28138,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>4.92052629797125e-13</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -29104,7 +29104,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -29281,13 +29281,13 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29764,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>17.94672347807291</v>
+        <v>15.57123329495925</v>
       </c>
       <c r="C34" t="n">
-        <v>17.94672347807291</v>
+        <v>15.57123329495925</v>
       </c>
       <c r="D34" t="n">
-        <v>17.94672347807291</v>
+        <v>15.57123329495925</v>
       </c>
       <c r="E34" t="n">
-        <v>17.94672347807291</v>
+        <v>15.57123329495925</v>
       </c>
       <c r="F34" t="n">
-        <v>17.94672347807291</v>
+        <v>15.57123329495925</v>
       </c>
       <c r="G34" t="n">
-        <v>17.94672347807291</v>
+        <v>15.57123329495925</v>
       </c>
       <c r="H34" t="n">
-        <v>17.94672347807291</v>
+        <v>15.57123329495925</v>
       </c>
       <c r="I34" t="n">
-        <v>17.94672347807291</v>
+        <v>15.57123329495925</v>
       </c>
       <c r="J34" t="n">
-        <v>17.94672347807291</v>
+        <v>15.57123329495925</v>
       </c>
       <c r="K34" t="n">
-        <v>17.94672347807291</v>
+        <v>15.57123329495925</v>
       </c>
       <c r="L34" t="n">
-        <v>17.94672347807291</v>
+        <v>15.57123329495925</v>
       </c>
       <c r="M34" t="n">
-        <v>17.94672347807291</v>
+        <v>15.57123329495925</v>
       </c>
       <c r="N34" t="n">
-        <v>17.94672347807291</v>
+        <v>15.57123329495925</v>
       </c>
       <c r="O34" t="n">
-        <v>17.94672347807291</v>
+        <v>15.57123329495925</v>
       </c>
       <c r="P34" t="n">
-        <v>17.94672347807291</v>
+        <v>15.57123329495925</v>
       </c>
       <c r="Q34" t="n">
-        <v>17.94672347807291</v>
+        <v>15.57123329495925</v>
       </c>
       <c r="R34" t="n">
-        <v>17.94672347807291</v>
+        <v>15.57123329495925</v>
       </c>
       <c r="S34" t="n">
-        <v>17.94672347807291</v>
+        <v>15.57123329495925</v>
       </c>
       <c r="T34" t="n">
-        <v>17.94672347807291</v>
+        <v>15.57123329495925</v>
       </c>
       <c r="U34" t="n">
-        <v>17.94672347807291</v>
+        <v>15.57123329495925</v>
       </c>
       <c r="V34" t="n">
-        <v>17.94672347807291</v>
+        <v>15.57123329495925</v>
       </c>
       <c r="W34" t="n">
-        <v>17.94672347807291</v>
+        <v>15.57123329495925</v>
       </c>
       <c r="X34" t="n">
-        <v>17.94672347807291</v>
+        <v>15.57123329495925</v>
       </c>
       <c r="Y34" t="n">
-        <v>17.94672347807291</v>
+        <v>15.57123329495925</v>
       </c>
     </row>
     <row r="35">
@@ -30049,7 +30049,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
     </row>
     <row r="38">
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
     </row>
     <row r="41">
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.368865958441349</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.74264849688748</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.4307048628103</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>370.8020371402618</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>555.7361331610842</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>689.4398147367339</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>767.1346347251651</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>779.5476751295867</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>736.1047642553355</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>628.2483859063145</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>471.7883737696336</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>274.4357762619417</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.55553302798235</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.12471073307702</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3495092766753079</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.337549366349069</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.57580572237127</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.48141458701839</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>220.8471530724794</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>377.462960617867</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>507.5455323732924</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>592.281696903446</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>607.9576310312871</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>556.1624582295524</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>446.3694048776569</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>298.3861261325584</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.133108903673</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.41895423898378</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.42196433190699</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1537861425229651</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.959722865374615</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.42371783942159</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>58.93421126053843</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
-        <v>138.5524065819853</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>227.6841656317052</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>291.3573430939678</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>307.1954669786771</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>299.8910453895538</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>276.9979191894956</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.0195727358533</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.1000664815053</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.11626629220765</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.15262484475577</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.373361333873351</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1068939744749791</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>266.6561007250664</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>399.9031616963282</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>309.7666854143572</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,31 +32303,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32339,13 +32339,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175661</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32707,34 +32707,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33020,16 +33020,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,13 +33038,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33178,7 +33178,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33257,34 +33257,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33442,7 +33442,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S32" t="n">
         <v>125.31755462929</v>
@@ -33494,13 +33494,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33512,10 +33512,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33676,7 +33676,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33734,31 +33734,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33968,34 +33968,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34144,7 +34144,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
         <v>790.8204499236507</v>
@@ -34205,13 +34205,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34223,10 +34223,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34442,13 +34442,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34460,10 +34460,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>189.7561326135755</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>335.6462821161037</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>453.6733997667466</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>536.7884014978924</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>550.1346115329957</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>506.0065528336487</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>397.015390151045</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>249.4826838951841</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>58.85023844780955</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.00952640581272</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>239.621521643508</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>368.9911525934182</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>450.1476629814277</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>476.6159189479538</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>413.5662137851079</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>312.3949974633267</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>158.4043520465369</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19322646531248</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>205.4146738058223</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>318.9473683542839</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>346.7793439405177</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.0232177687824</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>301.5830471035353</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.2981320007468</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>77.93802322981087</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>128.8146617507074</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>261.348781916454</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35729,22 +35729,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>171.212305634483</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,16 +35966,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36668,16 +36668,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,13 +36686,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36826,7 +36826,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37090,7 +37090,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,13 +37142,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37160,10 +37160,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>98.99320674102627</v>
+        <v>96.61771655791262</v>
       </c>
       <c r="K34" t="n">
-        <v>282.2793118877078</v>
+        <v>279.9038217045942</v>
       </c>
       <c r="L34" t="n">
-        <v>412.2887377972043</v>
+        <v>409.9132476140907</v>
       </c>
       <c r="M34" t="n">
-        <v>444.219150479118</v>
+        <v>441.8436602960044</v>
       </c>
       <c r="N34" t="n">
-        <v>439.5728564679803</v>
+        <v>437.1973662848667</v>
       </c>
       <c r="O34" t="n">
-        <v>391.2086231841183</v>
+        <v>388.8331330010047</v>
       </c>
       <c r="P34" t="n">
-        <v>313.5784967846978</v>
+        <v>311.2030066015842</v>
       </c>
       <c r="Q34" t="n">
-        <v>138.3489807779713</v>
+        <v>135.9734905948576</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37324,7 +37324,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37382,31 +37382,31 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K37" t="n">
         <v>288.6172359016746</v>
@@ -37479,7 +37479,7 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q37" t="n">
         <v>144.686904791938</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K40" t="n">
         <v>288.6172359016746</v>
@@ -37716,7 +37716,7 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q40" t="n">
         <v>144.686904791938</v>
@@ -37792,7 +37792,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
@@ -37853,13 +37853,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37871,10 +37871,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38108,10 +38108,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38175,25 +38175,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
